--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Cxcl13</t>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.767740666666668</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H2">
         <v>23.303222</v>
       </c>
       <c r="I2">
-        <v>0.9880684546028148</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J2">
-        <v>0.9880684546028148</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +552,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N2">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O2">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P2">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q2">
-        <v>0.7409647821933334</v>
+        <v>1.267031134973</v>
       </c>
       <c r="R2">
-        <v>4.445788693160001</v>
+        <v>7.602186809837999</v>
       </c>
       <c r="S2">
-        <v>0.3308605184417477</v>
+        <v>0.6908126631414042</v>
       </c>
       <c r="T2">
-        <v>0.2707662891369907</v>
+        <v>0.7006792490612115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.767740666666668</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H3">
         <v>23.303222</v>
       </c>
       <c r="I3">
-        <v>0.9880684546028148</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J3">
-        <v>0.9880684546028148</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,16 +614,16 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N3">
         <v>0.126061</v>
       </c>
       <c r="O3">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P3">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q3">
         <v>0.4896045780903333</v>
@@ -638,15 +632,15 @@
         <v>2.937627468542</v>
       </c>
       <c r="S3">
-        <v>0.2186214897540893</v>
+        <v>0.2669429607063399</v>
       </c>
       <c r="T3">
-        <v>0.1789132465399842</v>
+        <v>0.270755594431842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -655,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>7.767740666666668</v>
+        <v>0.342617</v>
       </c>
       <c r="H4">
-        <v>23.303222</v>
+        <v>0.685234</v>
       </c>
       <c r="I4">
-        <v>0.9880684546028148</v>
+        <v>0.04224437615225601</v>
       </c>
       <c r="J4">
-        <v>0.9880684546028148</v>
+        <v>0.02856515650694651</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1264483333333333</v>
+        <v>0.1631145</v>
       </c>
       <c r="N4">
-        <v>0.379345</v>
+        <v>0.326229</v>
       </c>
       <c r="O4">
-        <v>0.4438826524254145</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P4">
-        <v>0.5448903023042693</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q4">
-        <v>0.9822178610655556</v>
+        <v>0.0558858006465</v>
       </c>
       <c r="R4">
-        <v>8.83996074959</v>
+        <v>0.223543202586</v>
       </c>
       <c r="S4">
-        <v>0.4385864464069776</v>
+        <v>0.03047014213839423</v>
       </c>
       <c r="T4">
-        <v>0.53838891892584</v>
+        <v>0.02060355621858687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.09380033333333333</v>
+        <v>0.342617</v>
       </c>
       <c r="H5">
-        <v>0.281401</v>
+        <v>0.685234</v>
       </c>
       <c r="I5">
-        <v>0.01193154539718527</v>
+        <v>0.04224437615225601</v>
       </c>
       <c r="J5">
-        <v>0.01193154539718528</v>
+        <v>0.02856515650694651</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,152 +738,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.09539</v>
+        <v>0.0630305</v>
       </c>
       <c r="N5">
-        <v>0.19078</v>
+        <v>0.126061</v>
       </c>
       <c r="O5">
-        <v>0.3348558664133727</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P5">
-        <v>0.2740359616539259</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q5">
-        <v>0.008947613796666667</v>
+        <v>0.0215953208185</v>
       </c>
       <c r="R5">
-        <v>0.05368568278</v>
+        <v>0.08638128327400001</v>
       </c>
       <c r="S5">
-        <v>0.003995347971624963</v>
+        <v>0.01177423401386178</v>
       </c>
       <c r="T5">
-        <v>0.00326967251693514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.09380033333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.281401</v>
-      </c>
-      <c r="I6">
-        <v>0.01193154539718527</v>
-      </c>
-      <c r="J6">
-        <v>0.01193154539718528</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-      <c r="M6">
-        <v>0.06303049999999999</v>
-      </c>
-      <c r="N6">
-        <v>0.126061</v>
-      </c>
-      <c r="O6">
-        <v>0.2212614811612127</v>
-      </c>
-      <c r="P6">
-        <v>0.1810737360418049</v>
-      </c>
-      <c r="Q6">
-        <v>0.005912281910166665</v>
-      </c>
-      <c r="R6">
-        <v>0.035473691461</v>
-      </c>
-      <c r="S6">
-        <v>0.002639991407123464</v>
-      </c>
-      <c r="T6">
-        <v>0.002160489501820739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.09380033333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.281401</v>
-      </c>
-      <c r="I7">
-        <v>0.01193154539718527</v>
-      </c>
-      <c r="J7">
-        <v>0.01193154539718528</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.379345</v>
-      </c>
-      <c r="O7">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P7">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q7">
-        <v>0.01186089581611111</v>
-      </c>
-      <c r="R7">
-        <v>0.106748062345</v>
-      </c>
-      <c r="S7">
-        <v>0.005296206018436845</v>
-      </c>
-      <c r="T7">
-        <v>0.006501383378429398</v>
+        <v>0.007961600288359646</v>
       </c>
     </row>
   </sheetData>
